--- a/TemplateFile/督導填報-督導紀錄表.xlsx
+++ b/TemplateFile/督導填報-督導紀錄表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EQC_NEW\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256FCF7-E091-475C-8520-DB436FFA4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D20009-F408-40DB-A70B-539828B99B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -555,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,9 +590,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,98 +605,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -764,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -816,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1021,7 +1018,7 @@
   <dimension ref="A1:AMI32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="G7" sqref="G7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1046,132 +1043,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="15" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="13"/>
@@ -1180,130 +1177,130 @@
       <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="18" t="str">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="17" t="str">
         <f>CHOOSE(MATCH(G11,{100,89,79,69},-1),"(優等)","(甲等)","(乙等)","(丙等)")</f>
         <v>(丙等)</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
@@ -1316,20 +1313,20 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
@@ -1342,20 +1339,20 @@
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1368,20 +1365,20 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
@@ -1394,88 +1391,88 @@
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="2" t="s">
@@ -1484,11 +1481,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C13:I13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="C27:I27"/>
@@ -1505,29 +1520,11 @@
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.59015748031496096" right="0.59015748031496096" top="0.5901574803149604" bottom="0.5901574803149604" header="0.511811023622047" footer="0.511811023622047"/>
